--- a/Account.xlsx
+++ b/Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D57545-6DA3-4AC4-B9B4-7167797973E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03FE9FE-7CC3-421F-9E58-0CA9C66D1ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -667,7 +667,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,6 +1307,9 @@
       <c r="H42" t="s">
         <v>66</v>
       </c>
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43" t="s">

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5075A1-00DF-4332-AA29-64A926218E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441F5870-2D95-4719-8381-270620031482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,13 +331,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J44" totalsRowShown="0">
-  <autoFilter ref="A1:J44" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -641,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,7 +711,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -731,7 +725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -745,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -759,7 +753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -773,7 +767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>33</v>
       </c>
@@ -784,7 +778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>36</v>
       </c>
@@ -795,7 +789,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>39</v>
       </c>
@@ -806,7 +800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>42</v>
       </c>
@@ -817,7 +811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>45</v>
       </c>
@@ -828,7 +822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>48</v>
       </c>
@@ -865,7 +859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>17</v>
       </c>
@@ -879,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>21</v>
       </c>
@@ -893,7 +887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>25</v>
       </c>
@@ -907,7 +901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>29</v>
       </c>
@@ -921,7 +915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>33</v>
       </c>
@@ -932,7 +926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>36</v>
       </c>
@@ -943,7 +937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>39</v>
       </c>
@@ -980,7 +974,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>18</v>
       </c>
@@ -1017,7 +1011,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>17</v>
       </c>
@@ -1031,7 +1025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>21</v>
       </c>
@@ -1045,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>25</v>
       </c>
@@ -1059,7 +1053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>29</v>
       </c>
@@ -1073,7 +1067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F28" t="s">
         <v>33</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F29" t="s">
         <v>36</v>
       </c>
@@ -1095,7 +1089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F30" t="s">
         <v>39</v>
       </c>
@@ -1106,7 +1100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F31" t="s">
         <v>42</v>
       </c>
@@ -1117,7 +1111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
         <v>45</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F33" t="s">
         <v>48</v>
       </c>
@@ -1168,7 +1162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>17</v>
       </c>
@@ -1182,7 +1176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
         <v>29</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F39" t="s">
         <v>33</v>
       </c>
@@ -1235,7 +1229,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F40" t="s">
         <v>36</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
         <v>39</v>
       </c>
@@ -1280,7 +1274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F43" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
         <v>22</v>
       </c>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441F5870-2D95-4719-8381-270620031482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5CE0561-A60A-4CB0-B5A2-D9FB55E26B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
